--- a/관리산출물/관리산출물PMP_PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
+++ b/관리산출물/관리산출물PMP_PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\서한얼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpflt\OneDrive\문서\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP_PSP\PSP\서한얼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9E811-3698-4B84-8955-AC19028BAAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0ED9E811-3698-4B84-8955-AC19028BAAA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{A20F72AB-F707-4DF5-A07F-D64305D17DCD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서한얼" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>서한얼</t>
   </si>
@@ -279,12 +279,16 @@
     <t>USER_FLOW 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>2019.12.06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -332,6 +336,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +417,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -653,15 +664,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -673,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -681,7 +692,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -697,7 +708,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -705,7 +716,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -725,7 +736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -745,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -765,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -785,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -803,7 +814,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
@@ -813,7 +824,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
@@ -823,7 +834,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
@@ -833,7 +844,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>29</v>
       </c>
@@ -843,7 +854,7 @@
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>30</v>
       </c>
@@ -853,7 +864,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
@@ -863,7 +874,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
@@ -873,7 +884,7 @@
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>33</v>
       </c>
@@ -883,7 +894,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
@@ -893,7 +904,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>35</v>
       </c>
@@ -903,7 +914,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>20</v>
       </c>
@@ -923,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>23</v>
       </c>
@@ -944,7 +955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>24</v>
       </c>
@@ -964,7 +975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
@@ -984,7 +995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -992,7 +1003,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1000,7 +1011,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>37</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>47</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>49</v>
       </c>
@@ -1140,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>51</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>51</v>
       </c>
@@ -1180,7 +1191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>56</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1228,13 +1239,18 @@
       <c r="E37" s="13"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="12"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/관리산출물/관리산출물PMP_PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
+++ b/관리산출물/관리산출물PMP_PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vpflt\OneDrive\문서\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP_PSP\PSP\서한얼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\관리산출물\관리산출물PMP_PSP\PSP\서한얼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0ED9E811-3698-4B84-8955-AC19028BAAA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{A20F72AB-F707-4DF5-A07F-D64305D17DCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E413B1-8FCE-42E9-B37A-A1C210698A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="서한얼" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>서한얼</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>2019.09.07</t>
-  </si>
-  <si>
-    <t>고객사회의</t>
   </si>
   <si>
     <t>2019.09.08</t>
@@ -197,9 +194,6 @@
     <t>2019.11.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> SRS V2 작성</t>
-  </si>
-  <si>
     <t>2019.11.13</t>
   </si>
   <si>
@@ -281,6 +275,336 @@
   </si>
   <si>
     <t>2019.12.06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>요구사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 분석</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PPT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PPT 피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 반영</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SRS 초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.26</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12,08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.12.09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최종산출물</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 최종산출물</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class diagram</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAD 재설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test 설계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">최종 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산출물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAD 산출물 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">최종 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산출물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS v2 초안</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SRS v2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS v3 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> SRS V4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>프로토타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 회의</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 변수 설정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입 화깅ㄴ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록 작성</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀내 회의록 작성</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -342,6 +666,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -351,7 +689,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,11 +712,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,7 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,11 +761,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -664,15 +1017,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -684,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -692,7 +1045,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +1061,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -716,7 +1069,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -736,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -756,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -772,13 +1125,13 @@
       <c r="E7" s="9">
         <v>120</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>1700</v>
@@ -787,469 +1140,757 @@
         <v>1900</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="9">
         <v>120</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>60</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1530</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>90</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1700</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>60</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D12" s="12">
+        <f>-D199</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="11">
+        <v>800</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="12">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12">
+        <v>90</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
+        <v>800</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>30</v>
+      </c>
+      <c r="E14" s="12">
+        <v>90</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D15" s="12">
+        <f>-D202</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>60</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11">
+        <v>800</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="12">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12">
+        <v>90</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
+        <v>800</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="12">
+        <v>30</v>
+      </c>
+      <c r="E17" s="12">
+        <v>90</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D18" s="12">
+        <f>-D205</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>60</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="11">
+        <v>800</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>30</v>
+      </c>
+      <c r="E19" s="12">
+        <v>90</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B20" s="11">
         <v>1500</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C20" s="11">
         <v>1700</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="E20" s="12">
+        <v>110</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D21" s="12">
+        <f>-D208</f>
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E21" s="12">
         <v>60</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="F21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1230</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1330</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>60</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1400</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1600</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>60</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11">
+        <v>900</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D24" s="12">
+        <v>60</v>
+      </c>
+      <c r="E24" s="12">
+        <v>300</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1600</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1730</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>90</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11">
+        <v>700</v>
+      </c>
+      <c r="C26" s="11">
+        <v>800</v>
+      </c>
+      <c r="D26" s="12">
+        <v>10</v>
+      </c>
+      <c r="E26" s="12">
+        <v>50</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1700</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D27" s="12">
+        <v>60</v>
+      </c>
+      <c r="E27" s="12">
+        <v>240</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="11">
+        <v>900</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="12">
         <v>30</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="E28" s="12">
+        <v>150</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1800</v>
+      </c>
+      <c r="D29" s="12">
+        <v>120</v>
+      </c>
+      <c r="E29" s="12">
+        <v>480</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1300</v>
+      </c>
+      <c r="C30" s="11">
         <v>1500</v>
       </c>
-      <c r="C20" s="12">
-        <v>1700</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="D30" s="12">
         <v>10</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E30" s="12">
         <v>110</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="F30" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11">
+        <v>800</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="12">
+        <v>30</v>
+      </c>
+      <c r="E31" s="12">
+        <v>90</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C32" s="11">
         <v>1600</v>
       </c>
-      <c r="C21" s="12">
-        <v>1700</v>
-      </c>
-      <c r="D21" s="13">
-        <f>-D210</f>
+      <c r="D32" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E32" s="12">
         <v>60</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1230</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1330</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="F32" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2100</v>
+      </c>
+      <c r="D33" s="12">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12">
+        <v>50</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1100</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1150</v>
+      </c>
+      <c r="D34" s="12">
         <v>0</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E34" s="12">
+        <v>50</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2100</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D35" s="12">
+        <v>50</v>
+      </c>
+      <c r="E35" s="12">
+        <v>70</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>200</v>
+      </c>
+      <c r="D36" s="12">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12">
+        <v>240</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="20">
+        <v>2100</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2200</v>
+      </c>
+      <c r="D37" s="22">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22">
+        <v>50</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="20">
+        <v>1500</v>
+      </c>
+      <c r="C38" s="20">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="22">
         <v>60</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1400</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="E38" s="22">
+        <v>440</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="20">
         <v>1600</v>
       </c>
-      <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="C39" s="20">
+        <v>1900</v>
+      </c>
+      <c r="D39" s="22">
         <v>60</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="12">
-        <v>900</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1500</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="E39" s="22">
+        <v>240</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1800</v>
+      </c>
+      <c r="C40" s="20">
+        <v>2200</v>
+      </c>
+      <c r="D40" s="22">
         <v>60</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E40" s="22">
+        <v>340</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="20">
+        <v>2200</v>
+      </c>
+      <c r="C41" s="20">
+        <v>2400</v>
+      </c>
+      <c r="D41" s="22">
+        <v>10</v>
+      </c>
+      <c r="E41" s="22">
+        <v>110</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="20">
+        <v>2300</v>
+      </c>
+      <c r="C42" s="20">
         <v>300</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="12">
-        <v>1600</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1730</v>
-      </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <v>90</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="12">
-        <v>700</v>
-      </c>
-      <c r="C28" s="12">
-        <v>800</v>
-      </c>
-      <c r="D28" s="13">
-        <v>10</v>
-      </c>
-      <c r="E28" s="13">
-        <v>50</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1700</v>
-      </c>
-      <c r="C29" s="12">
-        <v>2200</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="D42" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="22">
+        <v>210</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="20">
+        <v>200</v>
+      </c>
+      <c r="C43" s="20">
+        <v>600</v>
+      </c>
+      <c r="D43" s="22">
         <v>60</v>
       </c>
-      <c r="E29" s="13">
-        <v>240</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="12">
-        <v>900</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="E43" s="22">
+        <v>180</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
         <v>1200</v>
       </c>
-      <c r="D30" s="13">
-        <v>30</v>
-      </c>
-      <c r="E30" s="13">
-        <v>150</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1200</v>
-      </c>
-      <c r="C31" s="12">
-        <v>1800</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C44">
+        <v>2300</v>
+      </c>
+      <c r="D44">
         <v>120</v>
       </c>
-      <c r="E31" s="13">
-        <v>480</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1300</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1500</v>
-      </c>
-      <c r="D32" s="13">
-        <v>10</v>
-      </c>
-      <c r="E32" s="13">
-        <v>110</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="12">
-        <v>800</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="13">
-        <v>30</v>
-      </c>
-      <c r="E33" s="13">
-        <v>90</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1600</v>
-      </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="E44">
+        <v>440</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>2100</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="D45">
         <v>60</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="12">
-        <v>2200</v>
-      </c>
-      <c r="C35" s="12">
-        <v>2100</v>
-      </c>
-      <c r="D35" s="13">
-        <v>10</v>
-      </c>
-      <c r="E35" s="13">
-        <v>50</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="12">
-        <v>1100</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1150</v>
-      </c>
-      <c r="D36" s="13">
-        <v>0</v>
-      </c>
-      <c r="E36" s="13">
-        <v>50</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>58</v>
+      <c r="E45">
+        <v>360</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
